--- a/test_signup/Utrecht/NTDS_Kiel.xlsx
+++ b/test_signup/Utrecht/NTDS_Kiel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="13275"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>Nr.</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>Ben je op een eerder ETDS of NTDS vrijwilliger geweest?</t>
-  </si>
-  <si>
-    <t>Doe je mee aan de Same Seks wedstrijd?</t>
   </si>
   <si>
     <t>Ann-Marie</t>
@@ -530,15 +527,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="X1" sqref="X1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -608,217 +605,214 @@
       <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
         <v>45</v>
       </c>
-      <c r="K2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="F3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="K3" t="s">
         <v>43</v>
       </c>
-      <c r="J3" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" t="s">
-        <v>44</v>
-      </c>
       <c r="N3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="3"/>
       <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
         <v>45</v>
       </c>
-      <c r="L4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="F5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="K5" t="s">
         <v>43</v>
       </c>
-      <c r="J5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="G10" s="3"/>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
